--- a/outputs_HGR/f__Lactobacillaceae.xlsx
+++ b/outputs_HGR/f__Lactobacillaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9807068184076527</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01929318159234725</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9807068184076527</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9793483202206409</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.02065167977935908</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9793483202206409</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9821222963450008</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01787770365499917</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9821222963450008</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9767189284113348</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.02328107158866527</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9767189284113348</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9732062293571406</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.02679377064285939</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9732062293571406</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9529959868390593</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.04700401316094075</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9529959868390593</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9722900823449331</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.02770991765506696</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9722900823449331</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.9709943024317819</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.02900569756821809</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9709943024317819</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.9702832005898794</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.02971679941012063</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9702832005898794</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.9778715162741296</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.02212848372587037</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9778715162741296</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.9744191446980258</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.02558085530197414</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9744191446980258</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.9736504089231194</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.02634959107688065</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9736504089231194</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.9818151796159725</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.01818482038402751</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9818151796159725</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.9767644256826533</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.02323557431734668</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9767644256826533</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.981915017790424</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.01808498220957597</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.981915017790424</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.9811786954866482</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01882130451335189</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9811786954866482</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.9778375332018541</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.02216246679814598</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9778375332018541</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.9751098633338197</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.02489013666618033</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9751098633338197</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.9746727884116471</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.02532721158835293</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9746727884116471</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.9759968683023212</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.0240031316976788</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.9759968683023212</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.9782731528118896</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.02172684718811036</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9782731528118896</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.974862088661943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.02513791133805693</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.974862088661943</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.9762265222545516</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.02377347774544833</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.9762265222545516</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.9764898054309865</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.02351019456901348</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.9764898054309865</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0.9782736324796978</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.0217263675203022</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.9782736324796978</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.9789193608793914</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.02108063912060869</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.9789193608793914</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.9794289818389482</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.02057101816105179</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.9794289818389482</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.9807757458179024</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.0192242541820976</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9807757458179024</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0.9736534414706707</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.02634655852932933</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.9736534414706707</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.9682931698726651</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.03170683012733489</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.9682931698726651</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0.9768928717909782</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.02310712820902185</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.9768928717909782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0.9739195438965212</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.02608045610347872</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.9739195438965212</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0.9719679321524721</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.02803206784752785</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.9719679321524721</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0.9787789184598585</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.02122108154014142</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.9787789184598585</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0.9724271457259219</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.02757285427407809</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.9724271457259219</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1379,17 +1379,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76530.fa</t>
+          <t>even_MAG-GUT77471.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0.9678122510667586</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.03218774893324142</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9678122510667586</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1405,17 +1405,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77471.fa</t>
+          <t>even_MAG-GUT80232.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.959823006385077</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.04017699361492302</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.959823006385077</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1431,17 +1431,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77576.fa</t>
+          <t>even_MAG-GUT83501.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.9725449042319192</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.02745509576808079</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9725449042319192</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1457,17 +1457,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80232.fa</t>
+          <t>even_MAG-GUT83507.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0.9766767156465391</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.02332328435346082</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.9766767156465391</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1483,17 +1483,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83501.fa</t>
+          <t>even_MAG-GUT86747.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0.9756083531353923</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.02439164686460768</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.9756083531353923</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1509,17 +1509,17 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83507.fa</t>
+          <t>even_MAG-GUT86758.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.9756758899982509</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.0243241100017491</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9756758899982509</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1535,17 +1535,17 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86747.fa</t>
+          <t>even_MAG-GUT88016.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0.9758658326915939</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.0241341673084061</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.9758658326915939</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1561,17 +1561,17 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86758.fa</t>
+          <t>even_MAG-GUT89050.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1587,17 +1587,17 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88016.fa</t>
+          <t>even_MAG-GUT89102.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0.9760477391428753</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.02395226085712465</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.9760477391428753</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1613,17 +1613,17 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89050.fa</t>
+          <t>even_MAG-GUT89162.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0.9738174550001651</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.02618254499983489</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9738174550001651</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1639,17 +1639,17 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89102.fa</t>
+          <t>even_MAG-GUT89164.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1665,17 +1665,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89162.fa</t>
+          <t>even_MAG-GUT89244.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0.9759583672465866</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.02404163275341337</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9759583672465866</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1691,17 +1691,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89164.fa</t>
+          <t>even_MAG-GUT89246.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0.976635134010326</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.02336486598967401</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.976635134010326</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1717,17 +1717,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89244.fa</t>
+          <t>even_MAG-GUT89255.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0.9743503231808663</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.02564967681913363</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9743503231808663</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1743,17 +1743,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89246.fa</t>
+          <t>even_MAG-GUT89282.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0.975994365628833</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.02400563437116703</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.975994365628833</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1769,17 +1769,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89255.fa</t>
+          <t>even_MAG-GUT89309.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.9784527667801649</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.02154723321983514</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.9784527667801649</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1795,17 +1795,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89282.fa</t>
+          <t>even_MAG-GUT89335.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0.9780797082376226</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.02192029176237746</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.9780797082376226</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89309.fa</t>
+          <t>even_MAG-GUT89577.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0.9764887074273835</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.02351129257261656</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.9764887074273835</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1847,17 +1847,17 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89335.fa</t>
+          <t>even_MAG-GUT89608.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0.97651220252925</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.02348779747075003</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.97651220252925</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1873,17 +1873,17 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89577.fa</t>
+          <t>even_MAG-GUT89735.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0.9775691282728883</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.02243087172711163</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9775691282728883</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1899,17 +1899,17 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89608.fa</t>
+          <t>even_MAG-GUT89747.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0.9748898431775717</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.02511015682242832</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.9748898431775717</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1925,17 +1925,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89735.fa</t>
+          <t>even_MAG-GUT89772.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0.9764522062549321</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.02354779374506791</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9764522062549321</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89747.fa</t>
+          <t>even_MAG-GUT89784.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.9760879028447941</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.02391209715520595</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9760879028447941</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1977,17 +1977,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89772.fa</t>
+          <t>even_MAG-GUT89815.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0.9751587917447445</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.02484120825525546</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.9751587917447445</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2003,17 +2003,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89784.fa</t>
+          <t>even_MAG-GUT89816.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2029,17 +2029,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89815.fa</t>
+          <t>even_MAG-GUT89833.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0.9765411018824881</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.02345889811751192</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.9765411018824881</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2055,17 +2055,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89816.fa</t>
+          <t>even_MAG-GUT89836.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0.9725358307565669</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.02746416924343298</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9725358307565669</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2081,17 +2081,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89833.fa</t>
+          <t>even_MAG-GUT89851.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2107,17 +2107,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89836.fa</t>
+          <t>even_MAG-GUT89852.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0.9758926966020219</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>0.02410730339797807</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.9758926966020219</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2133,17 +2133,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89851.fa</t>
+          <t>even_MAG-GUT90020.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0.9752094591195561</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.0247905408804438</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.9752094591195561</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2159,17 +2159,17 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89852.fa</t>
+          <t>even_MAG-GUT90054.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0.9740487256651662</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.02595127433483383</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.9740487256651662</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2185,17 +2185,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90020.fa</t>
+          <t>even_MAG-GUT90090.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0.9778912867770068</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.02210871322299328</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.9778912867770068</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2211,17 +2211,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90054.fa</t>
+          <t>even_MAG-GUT90143.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2237,17 +2237,17 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90090.fa</t>
+          <t>even_MAG-GUT90362.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0.9744848907270403</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.02551510927295978</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0.9744848907270403</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2263,17 +2263,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90143.fa</t>
+          <t>even_MAG-GUT90408.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2289,17 +2289,17 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90362.fa</t>
+          <t>even_MAG-GUT90441.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0.9765125085518294</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>0.0234874914481706</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0.9765125085518294</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2315,17 +2315,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90408.fa</t>
+          <t>even_MAG-GUT90442.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0.9759583672465866</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.02404163275341337</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0.9759583672465866</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2341,17 +2341,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90441.fa</t>
+          <t>even_MAG-GUT90614.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0.9740841565967541</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>0.02591584340324583</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.9740841565967541</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2367,17 +2367,17 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90442.fa</t>
+          <t>even_MAG-GUT90615.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2393,17 +2393,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90614.fa</t>
+          <t>even_MAG-GUT90671.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0.9731711069971727</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>0.02682889300282732</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.9731711069971727</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2419,17 +2419,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90615.fa</t>
+          <t>even_MAG-GUT90675.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0.9728598174602989</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>0.0271401825397011</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0.9728598174602989</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2445,17 +2445,17 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90671.fa</t>
+          <t>even_MAG-GUT90682.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0.9759039743818515</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.0240960256181485</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0.9759039743818515</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2471,17 +2471,17 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90675.fa</t>
+          <t>even_MAG-GUT90683.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2497,17 +2497,17 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90682.fa</t>
+          <t>even_MAG-GUT90694.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0.976395982480547</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.02360401751945299</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0.976395982480547</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2523,17 +2523,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90683.fa</t>
+          <t>even_MAG-GUT90730.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0.9755988166716374</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.02440118332836263</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0.9755988166716374</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2549,17 +2549,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90694.fa</t>
+          <t>even_MAG-GUT90775.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0.9729890724356371</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.02701092756436291</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0.9729890724356371</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2575,17 +2575,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90730.fa</t>
+          <t>even_MAG-GUT90941.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0.9756776562854819</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.02432234371451815</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0.9756776562854819</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2601,17 +2601,17 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90775.fa</t>
+          <t>even_MAG-GUT90963.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0.9739180285073342</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.02608197149266573</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0.9739180285073342</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2627,17 +2627,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90941.fa</t>
+          <t>even_MAG-GUT90995.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0.9754597997585807</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.02454020024141931</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0.9754597997585807</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2653,17 +2653,17 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90963.fa</t>
+          <t>even_MAG-GUT90996.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2679,17 +2679,17 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90995.fa</t>
+          <t>even_MAG-GUT91012.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.02444515088811309</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0.9755548491118869</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2705,17 +2705,17 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90996.fa</t>
+          <t>even_MAG-GUT91014.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0.9765125085518294</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>0.0234874914481706</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0.9765125085518294</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91012.fa</t>
+          <t>even_MAG-GUT91110.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0.9765411018824881</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.02345889811751192</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.9765411018824881</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2757,17 +2757,17 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91014.fa</t>
+          <t>even_MAG-GUT91793.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0.9768331187070339</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.02316688129296603</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0.9768331187070339</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2783,17 +2783,17 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91110.fa</t>
+          <t>even_MAG-GUT9692.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0.9747712526725127</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.02522874732748724</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.9747712526725127</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2801,58 +2801,6 @@
         </is>
       </c>
       <c r="F91" t="inlineStr">
-        <is>
-          <t>g__Lactobacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91793.fa</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>g__Lactobacillus</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>g__Lactobacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9692.fa</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>g__Lactobacillus</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
         <is>
           <t>g__Lactobacillus</t>
         </is>
